--- a/TestData/SearchData.xlsx
+++ b/TestData/SearchData.xlsx
@@ -16,18 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>search keyword</t>
-  </si>
-  <si>
-    <t>cucumber</t>
-  </si>
-  <si>
-    <t>protractor</t>
-  </si>
-  <si>
-    <t>typrscript</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Jeyaraj</t>
+  </si>
+  <si>
+    <t>Javed</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Shailesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -359,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,24 +394,48 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
